--- a/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79B43C6-19D4-A543-8900-72502DCC6E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632ED442-D011-3D4D-BD4E-7D60DD466E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -712,22 +712,22 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>0.5 hour</t>
-  </si>
-  <si>
-    <t>0.75 hour</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>GenerateOutput</t>
   </si>
   <si>
-    <t>us02_birth_b4_date()</t>
-  </si>
-  <si>
-    <t>299-335</t>
+    <t>us02_birth_b4_marriage</t>
+  </si>
+  <si>
+    <t>31-77</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>2 hours</t>
   </si>
 </sst>
 </file>
@@ -2056,7 +2056,7 @@
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -2614,7 +2614,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2629,7 +2629,7 @@
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
     <col min="15" max="15" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
@@ -2698,28 +2698,28 @@
         <v>211</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G2">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>215</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>

--- a/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632ED442-D011-3D4D-BD4E-7D60DD466E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB1FC5C-D5DF-DF48-BC86-498E8BE6B7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="227">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -728,6 +728,33 @@
   </si>
   <si>
     <t>2 hours</t>
+  </si>
+  <si>
+    <t>87-120</t>
+  </si>
+  <si>
+    <t>us04_marriage_b4_divorce</t>
+  </si>
+  <si>
+    <t>1.5 hour</t>
+  </si>
+  <si>
+    <t>0.75 hour</t>
+  </si>
+  <si>
+    <t>GenerateOutputTest</t>
+  </si>
+  <si>
+    <t>test_us02_birth_b4_marriage</t>
+  </si>
+  <si>
+    <t>test_us04_marriage_b4_divorce</t>
+  </si>
+  <si>
+    <t>29-35</t>
+  </si>
+  <si>
+    <t>20-26</t>
   </si>
 </sst>
 </file>
@@ -881,7 +908,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -919,6 +946,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="65"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2191,7 +2223,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2251,7 +2283,7 @@
         <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2613,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2629,11 +2661,11 @@
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2700,8 +2732,8 @@
       <c r="E2">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
-        <v>216</v>
+      <c r="F2" s="21" t="s">
+        <v>220</v>
       </c>
       <c r="G2">
         <v>46</v>
@@ -2721,9 +2753,15 @@
       <c r="M2" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="O2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
@@ -2737,7 +2775,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>115</v>
       </c>
@@ -2746,6 +2784,42 @@
       </c>
       <c r="C4" s="4" t="s">
         <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -2914,7 +2988,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{A8B14C9B-42E8-C942-883B-2EF81E90C994}">
       <formula1>"Pending, Coding, Waiting, Completed"</formula1>
     </dataValidation>
@@ -2923,6 +2997,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{448E45C9-02BE-434E-889F-32A10D3374BC}">
       <formula1>"GenerateOutput, FamilyEntry, IndividualEntry"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{53C292F1-05BE-D749-A667-4F54F4B41106}">
+      <formula1>"GenerateOutputTest"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3068,10 +3145,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3080,7 +3157,7 @@
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -3090,8 +3167,11 @@
       <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="D1" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -3102,18 +3182,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -3124,7 +3207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -3134,8 +3217,11 @@
       <c r="C5" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -3146,7 +3232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -3157,7 +3243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -3168,7 +3254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -3179,7 +3265,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -3190,7 +3276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -3201,7 +3287,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -3212,7 +3298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -3223,7 +3309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -3234,7 +3320,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -3245,7 +3331,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -3554,6 +3640,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{CBA4C0C8-C552-1747-8B56-4E1F2C52738C}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB1FC5C-D5DF-DF48-BC86-498E8BE6B7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B614E052-74C7-F241-9809-89D6544B697C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="228">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -755,6 +755,9 @@
   </si>
   <si>
     <t>20-26</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -2222,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2300,7 +2303,7 @@
         <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3147,7 +3150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3463,7 +3466,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>138</v>
       </c>

--- a/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B614E052-74C7-F241-9809-89D6544B697C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB3CEB-69E7-2B4E-A511-32A820210E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="218">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Initials</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,18 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -538,9 +522,6 @@
     <t>US42</t>
   </si>
   <si>
-    <t>Coding</t>
-  </si>
-  <si>
     <t>Dates before current date</t>
   </si>
   <si>
@@ -703,9 +684,6 @@
     <t>ynavadiy@stevens.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding </t>
-  </si>
-  <si>
     <t>Unique Ids</t>
   </si>
   <si>
@@ -724,24 +702,12 @@
     <t>31-77</t>
   </si>
   <si>
-    <t>1 hour</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
     <t>87-120</t>
   </si>
   <si>
     <t>us04_marriage_b4_divorce</t>
   </si>
   <si>
-    <t>1.5 hour</t>
-  </si>
-  <si>
-    <t>0.75 hour</t>
-  </si>
-  <si>
     <t>GenerateOutputTest</t>
   </si>
   <si>
@@ -757,7 +723,7 @@
     <t>20-26</t>
   </si>
   <si>
-    <t>Pending</t>
+    <t>List Upcoming birthdays</t>
   </si>
 </sst>
 </file>
@@ -1068,6 +1034,12 @@
                 <c:pt idx="0">
                   <c:v>42409</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42451</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1079,6 +1051,12 @@
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2096,112 +2074,112 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2223,9 +2201,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2240,19 +2218,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2260,16 +2238,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2277,16 +2255,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2294,16 +2272,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2311,16 +2286,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2328,16 +2300,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2345,16 +2314,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2362,16 +2328,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2379,16 +2342,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2396,16 +2356,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2413,23 +2370,440 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>119</v>
       </c>
-      <c r="C11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" t="s">
-        <v>154</v>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{D692D1BB-AF1B-0D46-A4DC-3C0F62CDEC6E}">
-      <formula1>"Pending, Coding, Waiting, Completed"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{F7A48ADE-6A77-304F-ACF8-66038C36A23F}">
+      <formula1>"Coding, Waiting, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2441,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2457,37 +2831,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2499,18 +2873,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B15" s="13">
         <v>42409</v>
@@ -2524,10 +2898,14 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="B16" s="13">
+        <v>42430</v>
+      </c>
+      <c r="C16" s="14">
+        <v>30</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="9" t="e">
@@ -2537,10 +2915,14 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+        <v>158</v>
+      </c>
+      <c r="B17" s="13">
+        <v>42451</v>
+      </c>
+      <c r="C17" s="14">
+        <v>20</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
       <c r="G17" s="9" t="e">
@@ -2550,7 +2932,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -2563,7 +2945,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -2610,13 +2992,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2649,7 +3031,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2701,69 +3083,69 @@
         <v>17</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
+      </c>
+      <c r="F2" s="21">
+        <v>40</v>
       </c>
       <c r="G2">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
-        <v>217</v>
+      <c r="H2">
+        <v>45</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="P2" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>223</v>
-      </c>
       <c r="Q2" s="18" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -2780,49 +3162,49 @@
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E4">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>216</v>
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
       </c>
       <c r="G4">
         <v>33</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>221</v>
+      <c r="H4" s="21">
+        <v>90</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>222</v>
-      </c>
       <c r="P4" s="18" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -2833,13 +3215,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -2850,13 +3232,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -2867,13 +3249,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -2884,13 +3266,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -2901,13 +3283,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -2928,13 +3310,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -2945,13 +3327,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -2962,18 +3344,18 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -2981,12 +3363,12 @@
     </row>
     <row r="25" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +3396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -3151,7 +3533,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3162,484 +3544,484 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B614E052-74C7-F241-9809-89D6544B697C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6BE061-09AB-0049-9918-CDEB50A3DFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="218">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Initials</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,18 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -538,9 +522,6 @@
     <t>US42</t>
   </si>
   <si>
-    <t>Coding</t>
-  </si>
-  <si>
     <t>Dates before current date</t>
   </si>
   <si>
@@ -703,9 +684,6 @@
     <t>ynavadiy@stevens.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding </t>
-  </si>
-  <si>
     <t>Unique Ids</t>
   </si>
   <si>
@@ -724,24 +702,12 @@
     <t>31-77</t>
   </si>
   <si>
-    <t>1 hour</t>
-  </si>
-  <si>
-    <t>2 hours</t>
-  </si>
-  <si>
     <t>87-120</t>
   </si>
   <si>
     <t>us04_marriage_b4_divorce</t>
   </si>
   <si>
-    <t>1.5 hour</t>
-  </si>
-  <si>
-    <t>0.75 hour</t>
-  </si>
-  <si>
     <t>GenerateOutputTest</t>
   </si>
   <si>
@@ -757,7 +723,7 @@
     <t>20-26</t>
   </si>
   <si>
-    <t>Pending</t>
+    <t>List Upcoming birthdays</t>
   </si>
 </sst>
 </file>
@@ -1068,6 +1034,12 @@
                 <c:pt idx="0">
                   <c:v>42409</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42451</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1079,6 +1051,12 @@
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2096,112 +2074,112 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2223,9 +2201,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2240,19 +2218,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2260,16 +2238,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2277,16 +2255,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2294,16 +2272,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2311,16 +2286,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2328,16 +2300,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2345,16 +2314,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2362,16 +2328,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2379,16 +2342,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2396,16 +2356,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2413,23 +2370,440 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>119</v>
       </c>
-      <c r="C11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" t="s">
-        <v>154</v>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{D692D1BB-AF1B-0D46-A4DC-3C0F62CDEC6E}">
-      <formula1>"Pending, Coding, Waiting, Completed"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{F7A48ADE-6A77-304F-ACF8-66038C36A23F}">
+      <formula1>"Coding, Waiting, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2441,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2457,37 +2831,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2499,18 +2873,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B15" s="13">
         <v>42409</v>
@@ -2524,10 +2898,14 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="B16" s="13">
+        <v>42430</v>
+      </c>
+      <c r="C16" s="14">
+        <v>30</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="9" t="e">
@@ -2537,10 +2915,14 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+        <v>158</v>
+      </c>
+      <c r="B17" s="13">
+        <v>42451</v>
+      </c>
+      <c r="C17" s="14">
+        <v>20</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
       <c r="G17" s="9" t="e">
@@ -2550,7 +2932,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -2563,7 +2945,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -2610,13 +2992,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2648,16 +3030,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -2667,7 +3049,7 @@
     <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -2701,69 +3083,69 @@
         <v>17</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>220</v>
+        <v>60</v>
+      </c>
+      <c r="F2" s="21">
+        <v>40</v>
       </c>
       <c r="G2">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
-        <v>217</v>
+      <c r="H2">
+        <v>45</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="P2" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>223</v>
-      </c>
       <c r="Q2" s="18" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -2780,49 +3162,49 @@
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E4">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>216</v>
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
       </c>
       <c r="G4">
         <v>33</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>221</v>
+      <c r="H4" s="21">
+        <v>90</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>222</v>
-      </c>
       <c r="P4" s="18" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -2833,13 +3215,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -2850,13 +3232,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -2867,13 +3249,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -2884,13 +3266,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -2901,13 +3283,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -2928,13 +3310,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -2945,13 +3327,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -2962,18 +3344,18 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -2981,20 +3363,17 @@
     </row>
     <row r="25" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{A8B14C9B-42E8-C942-883B-2EF81E90C994}">
-      <formula1>"Pending, Coding, Waiting, Completed"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{2B16F7D9-5A0C-174A-9C1B-C57E88FB4BB1}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
@@ -3004,6 +3383,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{53C292F1-05BE-D749-A667-4F54F4B41106}">
       <formula1>"GenerateOutputTest"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{ED15F127-3482-FB41-904A-A77BE8F6CCE0}">
+      <formula1>"Coding, Waiting, Completed"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -3012,26 +3394,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>13</v>
@@ -3040,17 +3439,250 @@
         <v>14</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>17</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B29" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{3F2C9800-6B5E-014E-B9A1-EA33C975D1B0}">
+      <formula1>"GenerateOutputTest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{4EA6CE83-FB53-6240-91D7-722AAECF311C}">
+      <formula1>"GenerateOutput, FamilyEntry, IndividualEntry"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{4C89E67B-8BA0-D34F-97CE-82B542713D38}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{6FDC8131-693D-994E-A1B6-DED1DEB4EC61}">
+      <formula1>"Coding, Waiting, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -3058,15 +3690,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3091,27 +3740,217 @@
       <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="F2" s="21"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="H4" s="21"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B29" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{6ADB0418-EB5B-3549-A05A-90FA10403A88}">
+      <formula1>"GenerateOutputTest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{6DD15638-6546-3F4F-AC63-4B3A7EFAE151}">
+      <formula1>"GenerateOutput, FamilyEntry, IndividualEntry"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{C80DF632-ECC5-D448-BBB6-9C15686AF69C}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{DDBDEFE7-63CD-434B-AB20-16EAA75B6A41}">
+      <formula1>"Coding, Waiting, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3136,12 +3975,185 @@
       <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="F2" s="21"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="H4" s="21"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B29" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{18DAA8D5-84BA-0E40-A6A5-3E96345CD927}">
+      <formula1>"GenerateOutputTest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{7A0F1FD4-299F-6B45-81B5-5D8AFC6651AD}">
+      <formula1>"GenerateOutput, FamilyEntry, IndividualEntry"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{7047A2E0-6B9F-2E4F-A440-7A310039A045}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{92044232-4C77-394F-86A0-C613DE36479E}">
+      <formula1>"Coding, Waiting, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3151,7 +4163,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3162,484 +4174,484 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6BE061-09AB-0049-9918-CDEB50A3DFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712FF5F0-AAC6-6745-84CC-E550BFB911FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="222">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -724,6 +724,18 @@
   </si>
   <si>
     <t>List Upcoming birthdays</t>
+  </si>
+  <si>
+    <t>us06_divorce_b4_death()</t>
+  </si>
+  <si>
+    <t>test_us06_divorce_b4_death()</t>
+  </si>
+  <si>
+    <t>38-44</t>
+  </si>
+  <si>
+    <t>130-172</t>
   </si>
 </sst>
 </file>
@@ -1159,6 +1171,9 @@
                 <c:pt idx="0">
                   <c:v>42409</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>42430</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1170,6 +1185,9 @@
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2204,7 +2222,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2233,105 +2251,99 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>184</v>
@@ -2339,44 +2351,50 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>151</v>
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>178</v>
+      </c>
+      <c r="E11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2392,6 +2410,9 @@
       <c r="D12" t="s">
         <v>178</v>
       </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -2409,86 +2430,86 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -2496,13 +2517,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -2510,13 +2531,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -2524,13 +2545,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -2538,97 +2559,97 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -2636,13 +2657,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -2650,13 +2671,13 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -2664,13 +2685,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -2678,97 +2699,97 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -2800,6 +2821,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+    <sortCondition ref="D1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{F7A48ADE-6A77-304F-ACF8-66038C36A23F}">
@@ -2968,7 +2992,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3013,6 +3037,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
       <c r="F3" s="9" t="e">
         <f>(D3-D2)/E3*60</f>
         <v>#DIV/0!</v>
@@ -3396,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3415,7 +3445,7 @@
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
     <col min="15" max="15" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3476,13 +3506,42 @@
       <c r="C2" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="18"/>
+      <c r="D2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+      <c r="F2" s="21">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
@@ -3927,7 +3986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C20"/>
     </sheetView>
   </sheetViews>
@@ -4162,8 +4221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4257,6 +4316,9 @@
       <c r="C7" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">

--- a/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712FF5F0-AAC6-6745-84CC-E550BFB911FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A516C69-9491-CD40-A06D-3977334DC4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -791,6 +791,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2221,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2251,99 +2252,105 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+      <c r="E3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>184</v>
@@ -2351,50 +2358,44 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2430,86 +2431,86 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -2517,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -2531,13 +2532,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -2545,13 +2546,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -2559,97 +2560,97 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -2657,13 +2658,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -2671,13 +2672,13 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -2685,13 +2686,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -2699,97 +2700,97 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -2822,12 +2823,12 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
-    <sortCondition ref="D1"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{F7A48ADE-6A77-304F-ACF8-66038C36A23F}">
-      <formula1>"Coding, Waiting, Completed"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{C83A676B-2FD1-CB48-8DB4-7BBF8C157176}">
+      <formula1>"Pending, Coding, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3426,7 +3427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A516C69-9491-CD40-A06D-3977334DC4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67D4AFF-AF11-F44E-96CE-6694867F2BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="226">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -736,6 +736,18 @@
   </si>
   <si>
     <t>130-172</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>1.5 hours</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Spending time on writing code and reusing the code</t>
   </si>
 </sst>
 </file>
@@ -890,7 +902,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -932,6 +944,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -2222,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2299,6 +2314,9 @@
       <c r="D4" t="s">
         <v>189</v>
       </c>
+      <c r="E4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -2313,6 +2331,9 @@
       <c r="D5" t="s">
         <v>189</v>
       </c>
+      <c r="E5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -2442,6 +2463,9 @@
       <c r="D14" t="s">
         <v>189</v>
       </c>
+      <c r="E14" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -2455,6 +2479,9 @@
       </c>
       <c r="D15" t="s">
         <v>189</v>
+      </c>
+      <c r="E15" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3425,10 +3452,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3586,6 +3613,15 @@
       <c r="C6" s="4" t="s">
         <v>189</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
@@ -3601,6 +3637,15 @@
       </c>
       <c r="C8" s="4" t="s">
         <v>189</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -3725,6 +3770,11 @@
     <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B29" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="B30" s="24" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/Documents/GitHub/CS555_Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67D4AFF-AF11-F44E-96CE-6694867F2BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7BD0C1-B626-2B4A-B57C-CFF93D730153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15760" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -699,12 +699,6 @@
     <t>us02_birth_b4_marriage</t>
   </si>
   <si>
-    <t>31-77</t>
-  </si>
-  <si>
-    <t>87-120</t>
-  </si>
-  <si>
     <t>us04_marriage_b4_divorce</t>
   </si>
   <si>
@@ -732,12 +726,6 @@
     <t>test_us06_divorce_b4_death()</t>
   </si>
   <si>
-    <t>38-44</t>
-  </si>
-  <si>
-    <t>130-172</t>
-  </si>
-  <si>
     <t>Coding</t>
   </si>
   <si>
@@ -748,6 +736,18 @@
   </si>
   <si>
     <t>Spending time on writing code and reusing the code</t>
+  </si>
+  <si>
+    <t>32-78</t>
+  </si>
+  <si>
+    <t>88-121</t>
+  </si>
+  <si>
+    <t>177-223</t>
+  </si>
+  <si>
+    <t>48-54</t>
   </si>
 </sst>
 </file>
@@ -2464,7 +2464,7 @@
         <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -2475,13 +2475,13 @@
         <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
         <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3088,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="D1" zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3194,16 +3194,16 @@
         <v>208</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -3250,19 +3250,19 @@
         <v>207</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M4" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="P4" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="18" t="s">
-        <v>214</v>
-      </c>
       <c r="Q4" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -3454,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3544,7 +3544,7 @@
         <v>30</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -3556,19 +3556,19 @@
         <v>207</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -3614,13 +3614,13 @@
         <v>189</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E6">
         <v>45</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -3633,19 +3633,19 @@
         <v>145</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E8">
         <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -3774,7 +3774,7 @@
     </row>
     <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B30" s="24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +4591,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>134</v>
       </c>

--- a/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7BD0C1-B626-2B4A-B57C-CFF93D730153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980DBF95-020A-A549-9DAA-CFBCA681CE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,10 +744,10 @@
     <t>88-121</t>
   </si>
   <si>
-    <t>177-223</t>
-  </si>
-  <si>
     <t>48-54</t>
+  </si>
+  <si>
+    <t>174-220</t>
   </si>
 </sst>
 </file>
@@ -3454,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3559,7 +3559,7 @@
         <v>216</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>210</v>
@@ -3568,7 +3568,7 @@
         <v>217</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">

--- a/Team_DhruvalKunjNihirVyomYash_Report.xlsx
+++ b/Team_DhruvalKunjNihirVyomYash_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunj/Desktop/Stevens/CS555_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980DBF95-020A-A549-9DAA-CFBCA681CE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30D1501-0C03-9B49-8776-ACC43043266B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="230">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -738,16 +738,28 @@
     <t>Spending time on writing code and reusing the code</t>
   </si>
   <si>
-    <t>32-78</t>
-  </si>
-  <si>
-    <t>88-121</t>
-  </si>
-  <si>
     <t>48-54</t>
   </si>
   <si>
     <t>174-220</t>
+  </si>
+  <si>
+    <t>us10_marriage_after_14()</t>
+  </si>
+  <si>
+    <t>231-277</t>
+  </si>
+  <si>
+    <t>test_us10_marriage_after_14()</t>
+  </si>
+  <si>
+    <t>57-63</t>
+  </si>
+  <si>
+    <t>33-79</t>
+  </si>
+  <si>
+    <t>89-122</t>
   </si>
 </sst>
 </file>
@@ -2238,7 +2250,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2448,6 +2460,9 @@
       </c>
       <c r="D13" t="s">
         <v>178</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -3088,7 +3103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="105" zoomScaleNormal="157" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -3194,7 +3209,7 @@
         <v>208</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>210</v>
@@ -3253,7 +3268,7 @@
         <v>209</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>210</v>
@@ -3454,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="C1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3559,7 +3574,7 @@
         <v>216</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>210</v>
@@ -3568,7 +3583,7 @@
         <v>217</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -3592,11 +3607,42 @@
       <c r="C4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="D4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4" s="21">
+        <v>45</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
@@ -4273,7 +4319,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4591,7 +4637,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>134</v>
       </c>
